--- a/ex_corr/резерв Tmp/tmpПугачев.xlsx
+++ b/ex_corr/резерв Tmp/tmpПугачев.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
-    <sheet name="export_230414_1853" sheetId="1" r:id="rId1"/>
+    <sheet name="export_230418_0958" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
